--- a/example_2_folder/example_2_025/main_results.xlsx
+++ b/example_2_folder/example_2_025/main_results.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\example_2_025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCA26BB-566B-465B-97FF-03C590FEFCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +208,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +260,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -267,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,9 +329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,64 +505,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>20</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BR1" t="s">
         <v>42</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BV1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,26 +583,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -591,17 +607,17 @@
       <c r="AC2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
       <c r="AE2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>1</v>
       </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
       <c r="AI2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="s">
         <v>1</v>
@@ -612,252 +628,291 @@
       <c r="AM2" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AW2" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AX2" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AY2" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AZ2" t="s">
         <v>25</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BA2" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BB2" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BC2" t="s">
         <v>28</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BD2" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BE2" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BF2" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BG2" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BH2" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BI2" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BJ2" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BK2" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BL2" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BM2" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BN2" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BO2" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BP2" t="s">
         <v>41</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>1</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2509.041212182546</v>
+        <v>2509.0412121825461</v>
       </c>
       <c r="B3">
         <v>2476.498593473345</v>
       </c>
       <c r="C3">
-        <v>2501.075245268606</v>
+        <v>2501.0752452686061</v>
       </c>
       <c r="E3">
-        <v>2350.437177664567</v>
+        <v>2350.4371776645671</v>
       </c>
       <c r="F3">
-        <v>2312.517533158018</v>
+        <v>2312.5175331580181</v>
       </c>
       <c r="G3">
-        <v>2343.621169239924</v>
+        <v>2343.6211692399238</v>
       </c>
       <c r="I3">
+        <f>A3-E3</f>
+        <v>158.60403451797902</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:K3" si="0">B3-F3</f>
+        <v>163.98106031532689</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>157.45407602868227</v>
+      </c>
+      <c r="M3">
+        <f>I3/A3</f>
+        <v>6.3213004931080313E-2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:O3" si="1">J3/B3</f>
+        <v>6.6214881263203046E-2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>6.2954553777038513E-2</v>
+      </c>
+      <c r="Q3">
         <v>2201.803857509989</v>
       </c>
-      <c r="K3">
-        <v>8744.484799022635</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.5660017975669558</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>8744.4847990226353</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.56600179756695579</v>
+      </c>
+      <c r="Y3">
         <v>0.2270376816531392</v>
       </c>
-      <c r="R3">
-        <v>0.2431540511286477</v>
-      </c>
-      <c r="S3">
-        <v>0.2318270921250425</v>
-      </c>
-      <c r="U3">
-        <v>23889472.90673696</v>
-      </c>
-      <c r="W3">
-        <v>55045096.43774974</v>
-      </c>
-      <c r="Y3">
-        <v>7639856.906270197</v>
-      </c>
       <c r="Z3">
-        <v>7536665.441844873</v>
+        <v>0.24315405112864771</v>
       </c>
       <c r="AA3">
+        <v>0.23182709212504249</v>
+      </c>
+      <c r="AC3">
+        <v>23889472.906736959</v>
+      </c>
+      <c r="AE3">
+        <v>55045096.437749743</v>
+      </c>
+      <c r="AG3">
+        <v>7639856.9062701967</v>
+      </c>
+      <c r="AH3">
+        <v>7536665.4418448731</v>
+      </c>
+      <c r="AI3">
         <v>7617691.473291276</v>
       </c>
-      <c r="AC3">
-        <v>1734535.40016131</v>
-      </c>
-      <c r="AD3">
+      <c r="AK3">
+        <v>1734535.4001613101</v>
+      </c>
+      <c r="AL3">
         <v>1832570.73418586</v>
       </c>
-      <c r="AE3">
+      <c r="AM3">
         <v>1765987.262958847</v>
       </c>
-      <c r="AG3">
-        <v>5168.508393521503</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AO3">
+        <v>5168.5083935215034</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>16</v>
       </c>
-      <c r="AK3">
-        <v>493059.2902005533</v>
-      </c>
-      <c r="AL3">
-        <v>320783.6798591042</v>
-      </c>
-      <c r="AM3">
-        <v>79288.84481625263</v>
-      </c>
-      <c r="AN3">
+      <c r="AS3">
+        <v>493059.29020055331</v>
+      </c>
+      <c r="AT3">
+        <v>320783.67985910422</v>
+      </c>
+      <c r="AU3">
+        <v>79288.844816252633</v>
+      </c>
+      <c r="AV3">
         <v>201806.3927468466</v>
       </c>
-      <c r="AO3">
-        <v>419075.9270343682</v>
-      </c>
-      <c r="AP3">
-        <v>49278.85859575577</v>
-      </c>
-      <c r="AQ3">
-        <v>630584.4311831024</v>
-      </c>
-      <c r="AR3">
+      <c r="AW3">
+        <v>419075.92703436821</v>
+      </c>
+      <c r="AX3">
+        <v>49278.858595755773</v>
+      </c>
+      <c r="AY3">
+        <v>630584.43118310242</v>
+      </c>
+      <c r="AZ3">
         <v>248140.7693576593</v>
       </c>
-      <c r="AS3">
+      <c r="BA3">
         <v>710527.6868046684</v>
       </c>
-      <c r="AT3">
-        <v>308794.5567241742</v>
-      </c>
-      <c r="AU3">
-        <v>96683.87381398291</v>
-      </c>
-      <c r="AV3">
+      <c r="BB3">
+        <v>308794.55672417418</v>
+      </c>
+      <c r="BC3">
+        <v>96683.873813982907</v>
+      </c>
+      <c r="BD3">
         <v>115920.7199449316</v>
       </c>
-      <c r="AW3">
-        <v>407420.4199089635</v>
-      </c>
-      <c r="AX3">
-        <v>147576.6347253401</v>
-      </c>
-      <c r="AY3">
-        <v>478073.5938333313</v>
-      </c>
-      <c r="AZ3">
+      <c r="BE3">
+        <v>407420.41990896349</v>
+      </c>
+      <c r="BF3">
+        <v>147576.63472534009</v>
+      </c>
+      <c r="BG3">
+        <v>478073.59383333131</v>
+      </c>
+      <c r="BH3">
         <v>365921.7964329567</v>
       </c>
-      <c r="BA3">
-        <v>765713.3737457676</v>
-      </c>
-      <c r="BB3">
-        <v>386114.1030424052</v>
-      </c>
-      <c r="BC3">
-        <v>535965.545598869</v>
-      </c>
-      <c r="BD3">
-        <v>396755.0778027212</v>
-      </c>
-      <c r="BE3">
-        <v>69667.15818522331</v>
-      </c>
-      <c r="BF3">
+      <c r="BI3">
+        <v>765713.37374576763</v>
+      </c>
+      <c r="BJ3">
+        <v>386114.10304240522</v>
+      </c>
+      <c r="BK3">
+        <v>535965.54559886898</v>
+      </c>
+      <c r="BL3">
+        <v>396755.07780272118</v>
+      </c>
+      <c r="BM3">
+        <v>69667.158185223307</v>
+      </c>
+      <c r="BN3">
         <v>14658.59566894465</v>
       </c>
-      <c r="BG3">
-        <v>238893.5194289754</v>
-      </c>
-      <c r="BH3">
-        <v>169070.1553201781</v>
-      </c>
-      <c r="BJ3">
+      <c r="BO3">
+        <v>238893.51942897541</v>
+      </c>
+      <c r="BP3">
+        <v>169070.15532017811</v>
+      </c>
+      <c r="BR3">
         <v>2050500</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>3332077.324272259</v>
-      </c>
-      <c r="BO3">
-        <v>3228885.859846941</v>
-      </c>
-      <c r="BP3">
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>3332077.3242722591</v>
+      </c>
+      <c r="BW3">
+        <v>3228885.8598469412</v>
+      </c>
+      <c r="BX3">
         <v>3309911.891293331</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2077.106638913907</v>
+        <v>2077.1066389139069</v>
       </c>
       <c r="B4">
         <v>2052.134425653971</v>
@@ -869,154 +924,178 @@
         <v>1905.551379293757</v>
       </c>
       <c r="F4">
-        <v>1876.034944535841</v>
+        <v>1876.0349445358411</v>
       </c>
       <c r="G4">
-        <v>1903.449369641704</v>
+        <v>1903.4493696417039</v>
       </c>
       <c r="I4">
-        <v>2503.955409587573</v>
+        <f t="shared" ref="I4:I26" si="2">A4-E4</f>
+        <v>171.55525962014985</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J26" si="3">B4-F4</f>
+        <v>176.09948111812992</v>
       </c>
       <c r="K4">
-        <v>9357.316832225013</v>
+        <f t="shared" ref="K4:K26" si="4">C4-G4</f>
+        <v>167.38039895440807</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" ref="M4:M26" si="5">I4/A4</f>
+        <v>8.259338081450357E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N26" si="6">J4/B4</f>
+        <v>8.5812839021016274E-2</v>
       </c>
       <c r="O4">
-        <v>0.5213360312815957</v>
+        <f t="shared" ref="O4:O26" si="7">K4/C4</f>
+        <v>8.0827695976130917E-2</v>
       </c>
       <c r="Q4">
-        <v>0.2481628298360262</v>
-      </c>
-      <c r="R4">
-        <v>0.2621393843724696</v>
+        <v>2503.9554095875728</v>
       </c>
       <c r="S4">
-        <v>0.2478437987651712</v>
+        <v>9357.3168322250131</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.52133603128159567</v>
+      </c>
+      <c r="Y4">
+        <v>0.24816282983602619</v>
+      </c>
+      <c r="Z4">
+        <v>0.26213938437246959</v>
+      </c>
+      <c r="AA4">
+        <v>0.24784379876517121</v>
+      </c>
+      <c r="AC4">
         <v>29963830.84617763</v>
       </c>
-      <c r="W4">
-        <v>62598885.23968934</v>
-      </c>
-      <c r="Y4">
-        <v>5954646.968515474</v>
-      </c>
-      <c r="Z4">
-        <v>5879566.884415831</v>
-      </c>
-      <c r="AA4">
-        <v>5938519.834537581</v>
-      </c>
-      <c r="AC4">
+      <c r="AE4">
+        <v>62598885.239689343</v>
+      </c>
+      <c r="AG4">
+        <v>5954646.9685154743</v>
+      </c>
+      <c r="AH4">
+        <v>5879566.8844158314</v>
+      </c>
+      <c r="AI4">
+        <v>5938519.8345375806</v>
+      </c>
+      <c r="AK4">
         <v>1477722.042381315</v>
       </c>
-      <c r="AD4">
-        <v>1541266.043457525</v>
-      </c>
-      <c r="AE4">
+      <c r="AL4">
+        <v>1541266.0434575251</v>
+      </c>
+      <c r="AM4">
         <v>1471825.31483411</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>17</v>
       </c>
-      <c r="AK4">
-        <v>858832.8000000003</v>
-      </c>
-      <c r="AL4">
-        <v>753669.6000000001</v>
-      </c>
-      <c r="AM4">
-        <v>148981.2</v>
-      </c>
-      <c r="AN4">
-        <v>587161.2</v>
-      </c>
-      <c r="AO4">
+      <c r="AS4">
+        <v>858832.80000000028</v>
+      </c>
+      <c r="AT4">
+        <v>753669.60000000009</v>
+      </c>
+      <c r="AU4">
+        <v>148981.20000000001</v>
+      </c>
+      <c r="AV4">
+        <v>587161.19999999995</v>
+      </c>
+      <c r="AW4">
         <v>420652.8000000001</v>
       </c>
-      <c r="AP4">
+      <c r="AX4">
         <v>333016.8</v>
       </c>
-      <c r="AQ4">
-        <v>736142.3999999998</v>
-      </c>
-      <c r="AR4">
+      <c r="AY4">
+        <v>736142.39999999979</v>
+      </c>
+      <c r="AZ4">
         <v>420652.8000000001</v>
       </c>
-      <c r="AS4">
-        <v>560870.4</v>
-      </c>
-      <c r="AT4">
+      <c r="BA4">
+        <v>560870.40000000002</v>
+      </c>
+      <c r="BB4">
         <v>341780.4</v>
       </c>
-      <c r="AU4">
-        <v>955232.3999999999</v>
-      </c>
-      <c r="AV4">
+      <c r="BC4">
+        <v>955232.39999999991</v>
+      </c>
+      <c r="BD4">
         <v>254144.4</v>
       </c>
-      <c r="AW4">
-        <v>429416.4000000001</v>
-      </c>
-      <c r="AX4">
-        <v>525815.9999999999</v>
-      </c>
-      <c r="AY4">
-        <v>639742.8</v>
-      </c>
-      <c r="AZ4">
-        <v>692324.3999999999</v>
-      </c>
-      <c r="BA4">
+      <c r="BE4">
+        <v>429416.40000000008</v>
+      </c>
+      <c r="BF4">
+        <v>525815.99999999988</v>
+      </c>
+      <c r="BG4">
+        <v>639742.80000000005</v>
+      </c>
+      <c r="BH4">
+        <v>692324.39999999991</v>
+      </c>
+      <c r="BI4">
         <v>333016.8</v>
       </c>
-      <c r="BB4">
+      <c r="BJ4">
         <v>517052.4</v>
       </c>
-      <c r="BC4">
+      <c r="BK4">
         <v>473234.4</v>
       </c>
-      <c r="BD4">
-        <v>280435.2</v>
-      </c>
-      <c r="BE4">
-        <v>674797.1999999998</v>
-      </c>
-      <c r="BF4">
-        <v>227853.5999999999</v>
-      </c>
-      <c r="BG4">
-        <v>788724.0000000001</v>
-      </c>
-      <c r="BH4">
-        <v>446943.5999999999</v>
-      </c>
-      <c r="BJ4">
+      <c r="BL4">
+        <v>280435.20000000001</v>
+      </c>
+      <c r="BM4">
+        <v>674797.19999999984</v>
+      </c>
+      <c r="BN4">
+        <v>227853.59999999989</v>
+      </c>
+      <c r="BO4">
+        <v>788724.00000000012</v>
+      </c>
+      <c r="BP4">
+        <v>446943.59999999992</v>
+      </c>
+      <c r="BR4">
         <v>1498200</v>
       </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
         <v>2424354.05996121</v>
       </c>
-      <c r="BO4">
-        <v>2349273.975861586</v>
-      </c>
-      <c r="BP4">
-        <v>2408226.925983329</v>
+      <c r="BW4">
+        <v>2349273.9758615862</v>
+      </c>
+      <c r="BX4">
+        <v>2408226.9259833288</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1031.752065442482</v>
       </c>
@@ -1024,160 +1103,184 @@
         <v>1022.750453686</v>
       </c>
       <c r="C5">
-        <v>1029.489472653508</v>
+        <v>1029.4894726535081</v>
       </c>
       <c r="E5">
-        <v>927.5371286820588</v>
+        <v>927.53712868205878</v>
       </c>
       <c r="F5">
-        <v>917.5794396010673</v>
+        <v>917.57943960106729</v>
       </c>
       <c r="G5">
-        <v>926.3807548058223</v>
+        <v>926.38075480582233</v>
       </c>
       <c r="I5">
+        <f t="shared" si="2"/>
+        <v>104.21493676042326</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>105.17101408493272</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>103.10871784768574</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.10100773262395084</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>0.10283154967655661</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0.10015519399331313</v>
+      </c>
+      <c r="Q5">
         <v>2295.762614109557</v>
       </c>
-      <c r="K5">
-        <v>8872.525009627358</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.5456647124864761</v>
-      </c>
-      <c r="Q5">
-        <v>0.3099855464042949</v>
-      </c>
-      <c r="R5">
-        <v>0.3202348378864132</v>
-      </c>
       <c r="S5">
-        <v>0.3134757605460293</v>
+        <v>8872.5250096273576</v>
       </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.54566471248647608</v>
+      </c>
+      <c r="Y5">
+        <v>0.30998554640429488</v>
+      </c>
+      <c r="Z5">
+        <v>0.32023483788641322</v>
+      </c>
+      <c r="AA5">
+        <v>0.31347576054602933</v>
+      </c>
+      <c r="AC5">
         <v>26076149.18360661</v>
       </c>
-      <c r="W5">
-        <v>57394065.35273891</v>
-      </c>
-      <c r="Y5">
-        <v>2946191.567609681</v>
-      </c>
-      <c r="Z5">
-        <v>2919127.816364461</v>
-      </c>
-      <c r="AA5">
-        <v>2940378.298385092</v>
-      </c>
-      <c r="AC5">
-        <v>913276.8028972129</v>
-      </c>
-      <c r="AD5">
+      <c r="AE5">
+        <v>57394065.352738909</v>
+      </c>
+      <c r="AG5">
+        <v>2946191.5676096808</v>
+      </c>
+      <c r="AH5">
+        <v>2919127.8163644611</v>
+      </c>
+      <c r="AI5">
+        <v>2940378.2983850921</v>
+      </c>
+      <c r="AK5">
+        <v>913276.80289721291</v>
+      </c>
+      <c r="AL5">
         <v>934806.4230431926</v>
       </c>
-      <c r="AE5">
-        <v>921737.3233793061</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AM5">
+        <v>921737.32337930612</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>18</v>
       </c>
-      <c r="AK5">
-        <v>419726.49179726</v>
-      </c>
-      <c r="AL5">
-        <v>796749.6286950756</v>
-      </c>
-      <c r="AM5">
-        <v>562065.4546678457</v>
-      </c>
-      <c r="AN5">
-        <v>873487.9702470166</v>
-      </c>
-      <c r="AO5">
-        <v>800641.0468814212</v>
-      </c>
-      <c r="AP5">
-        <v>804477.5823041648</v>
-      </c>
-      <c r="AQ5">
-        <v>466961.9611776163</v>
-      </c>
-      <c r="AR5">
-        <v>365518.7160486162</v>
-      </c>
       <c r="AS5">
-        <v>422843.5456248382</v>
+        <v>419726.49179726001</v>
       </c>
       <c r="AT5">
-        <v>937499.5665121764</v>
+        <v>796749.62869507563</v>
       </c>
       <c r="AU5">
-        <v>852949.1456206398</v>
+        <v>562065.45466784574</v>
       </c>
       <c r="AV5">
-        <v>638074.9587517823</v>
+        <v>873487.97024701664</v>
       </c>
       <c r="AW5">
-        <v>400634.4420560919</v>
+        <v>800641.04688142124</v>
       </c>
       <c r="AX5">
-        <v>822248.8366324073</v>
+        <v>804477.58230416477</v>
       </c>
       <c r="AY5">
-        <v>800455.6176951248</v>
+        <v>466961.96117761632</v>
       </c>
       <c r="AZ5">
-        <v>918396.9868253873</v>
+        <v>365518.71604861622</v>
       </c>
       <c r="BA5">
-        <v>538532.7033750465</v>
+        <v>422843.54562483821</v>
       </c>
       <c r="BB5">
-        <v>664994.1755256925</v>
+        <v>937499.56651217642</v>
       </c>
       <c r="BC5">
-        <v>381264.9887419562</v>
+        <v>852949.14562063979</v>
       </c>
       <c r="BD5">
-        <v>445340.2307326258</v>
+        <v>638074.95875178231</v>
       </c>
       <c r="BE5">
-        <v>818327.6456419788</v>
+        <v>400634.44205609191</v>
       </c>
       <c r="BF5">
-        <v>610842.6510597416</v>
+        <v>822248.83663240727</v>
       </c>
       <c r="BG5">
-        <v>654761.5353009655</v>
+        <v>800455.61769512482</v>
       </c>
       <c r="BH5">
-        <v>930581.8868856743</v>
+        <v>918396.98682538734</v>
+      </c>
+      <c r="BI5">
+        <v>538532.70337504649</v>
       </c>
       <c r="BJ5">
+        <v>664994.17552569252</v>
+      </c>
+      <c r="BK5">
+        <v>381264.98874195619</v>
+      </c>
+      <c r="BL5">
+        <v>445340.23073262582</v>
+      </c>
+      <c r="BM5">
+        <v>818327.64564197883</v>
+      </c>
+      <c r="BN5">
+        <v>610842.65105974162</v>
+      </c>
+      <c r="BO5">
+        <v>654761.53530096554</v>
+      </c>
+      <c r="BP5">
+        <v>930581.88688567432</v>
+      </c>
+      <c r="BR5">
         <v>826200</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>873895.0681255753</v>
-      </c>
-      <c r="BO5">
-        <v>846831.316880368</v>
-      </c>
-      <c r="BP5">
-        <v>868081.7989009925</v>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>873895.06812557532</v>
+      </c>
+      <c r="BW5">
+        <v>846831.31688036805</v>
+      </c>
+      <c r="BX5">
+        <v>868081.79890099249</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1964.983923484278</v>
       </c>
@@ -1185,7 +1288,7 @@
         <v>1941.463583088316</v>
       </c>
       <c r="C6">
-        <v>1959.071987487292</v>
+        <v>1959.0719874872921</v>
       </c>
       <c r="E6">
         <v>1803.333332730057</v>
@@ -1194,132 +1297,156 @@
         <v>1776.160426638352</v>
       </c>
       <c r="G6">
-        <v>1801.36425461957</v>
-      </c>
-      <c r="Q6">
+        <v>1801.3642546195699</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>161.65059075422096</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>165.30315644996404</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>157.70773286772214</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>8.2265604732065553E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>8.5143578221031455E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>8.0501244402967687E-2</v>
+      </c>
+      <c r="Y6">
         <v>0.2486715794139778</v>
       </c>
-      <c r="R6">
-        <v>0.2632740061974083</v>
-      </c>
-      <c r="S6">
-        <v>0.2487525379608009</v>
-      </c>
-      <c r="Y6">
-        <v>5630649.805515546</v>
-      </c>
       <c r="Z6">
+        <v>0.26327400619740832</v>
+      </c>
+      <c r="AA6">
+        <v>0.24875253796080091</v>
+      </c>
+      <c r="AG6">
+        <v>5630649.8055155464</v>
+      </c>
+      <c r="AH6">
         <v>5559934.842584488</v>
       </c>
-      <c r="AA6">
-        <v>5615460.295606134</v>
-      </c>
-      <c r="AC6">
-        <v>1400182.580264558</v>
-      </c>
-      <c r="AD6">
-        <v>1463786.320203775</v>
-      </c>
-      <c r="AE6">
-        <v>1396860.000350135</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AI6">
+        <v>5615460.2956061345</v>
+      </c>
+      <c r="AK6">
+        <v>1400182.5802645581</v>
+      </c>
+      <c r="AL6">
+        <v>1463786.3202037751</v>
+      </c>
+      <c r="AM6">
+        <v>1396860.0003501349</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>19</v>
       </c>
-      <c r="AK6">
+      <c r="AS6">
         <v>485661</v>
       </c>
-      <c r="AL6">
+      <c r="AT6">
         <v>160890</v>
       </c>
-      <c r="AM6">
+      <c r="AU6">
         <v>455761</v>
       </c>
-      <c r="AN6">
+      <c r="AV6">
         <v>197591</v>
       </c>
-      <c r="AO6">
+      <c r="AW6">
         <v>26345</v>
       </c>
-      <c r="AP6">
+      <c r="AX6">
         <v>15228</v>
       </c>
-      <c r="AQ6">
+      <c r="AY6">
         <v>85679</v>
       </c>
-      <c r="AR6">
+      <c r="AZ6">
         <v>29365</v>
       </c>
-      <c r="AS6">
+      <c r="BA6">
         <v>489381.75</v>
       </c>
-      <c r="AT6">
+      <c r="BB6">
         <v>435140</v>
       </c>
-      <c r="AU6">
+      <c r="BC6">
         <v>231036</v>
       </c>
-      <c r="AV6">
+      <c r="BD6">
         <v>398314</v>
       </c>
-      <c r="AW6">
+      <c r="BE6">
         <v>207681</v>
       </c>
-      <c r="AX6">
+      <c r="BF6">
         <v>246654</v>
       </c>
-      <c r="AY6">
+      <c r="BG6">
         <v>25037</v>
       </c>
-      <c r="AZ6">
+      <c r="BH6">
         <v>112561</v>
       </c>
-      <c r="BA6">
+      <c r="BI6">
         <v>199029.5</v>
       </c>
-      <c r="BB6">
+      <c r="BJ6">
         <v>271644</v>
       </c>
-      <c r="BC6">
+      <c r="BK6">
         <v>696237.25</v>
       </c>
-      <c r="BD6">
+      <c r="BL6">
         <v>224242</v>
       </c>
-      <c r="BE6">
+      <c r="BM6">
         <v>72187</v>
       </c>
-      <c r="BF6">
+      <c r="BN6">
         <v>198431</v>
       </c>
-      <c r="BG6">
+      <c r="BO6">
         <v>43785</v>
       </c>
-      <c r="BH6">
+      <c r="BP6">
         <v>259037</v>
       </c>
-      <c r="BJ6">
+      <c r="BR6">
         <v>1487200</v>
       </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>2283403.242521594</v>
-      </c>
-      <c r="BO6">
-        <v>2212688.279590558</v>
-      </c>
-      <c r="BP6">
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>2283403.2425215938</v>
+      </c>
+      <c r="BW6">
+        <v>2212688.2795905578</v>
+      </c>
+      <c r="BX6">
         <v>2268213.732612188</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1128.771820386654</v>
+        <v>1128.7718203866541</v>
       </c>
       <c r="B7">
         <v>1120.567573007454</v>
@@ -1334,63 +1461,87 @@
         <v>1018.653475793054</v>
       </c>
       <c r="G7">
-        <v>1030.716285469404</v>
-      </c>
-      <c r="Q7">
-        <v>0.3011159940416341</v>
-      </c>
-      <c r="R7">
-        <v>0.3110980423716153</v>
-      </c>
-      <c r="S7">
-        <v>0.2931482609487202</v>
+        <v>1030.7162854694041</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>99.582826976782144</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>101.91409721440004</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>96.195723931532939</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>8.8222282996638451E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>9.0948640375944662E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>8.5362231593103965E-2</v>
       </c>
       <c r="Y7">
-        <v>3255395.896536655</v>
+        <v>0.30111599404163408</v>
       </c>
       <c r="Z7">
+        <v>0.31109804237161531</v>
+      </c>
+      <c r="AA7">
+        <v>0.29314826094872021</v>
+      </c>
+      <c r="AG7">
+        <v>3255395.8965366548</v>
+      </c>
+      <c r="AH7">
         <v>3231327.289970187</v>
       </c>
-      <c r="AA7">
-        <v>3250225.981672901</v>
-      </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>3250225.9816729012</v>
+      </c>
+      <c r="AK7">
         <v>980251.7713846917</v>
       </c>
-      <c r="AD7">
+      <c r="AL7">
         <v>1005259.594171702</v>
       </c>
-      <c r="AE7">
-        <v>952798.0942177578</v>
-      </c>
-      <c r="BJ7">
+      <c r="AM7">
+        <v>952798.09421775781</v>
+      </c>
+      <c r="BR7">
         <v>811500</v>
       </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>777181.1226208687</v>
-      </c>
-      <c r="BO7">
-        <v>753112.5160544071</v>
-      </c>
-      <c r="BP7">
-        <v>772011.2077571168</v>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>777181.12262086873</v>
+      </c>
+      <c r="BW7">
+        <v>753112.51605440711</v>
+      </c>
+      <c r="BX7">
+        <v>772011.20775711676</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1931.013557266492</v>
+        <v>1931.0135572664919</v>
       </c>
       <c r="B8">
-        <v>1901.016777786274</v>
+        <v>1901.0167777862739</v>
       </c>
       <c r="C8">
-        <v>1924.213623349972</v>
+        <v>1924.2136233499721</v>
       </c>
       <c r="E8">
         <v>1799.411245482801</v>
@@ -1399,55 +1550,87 @@
         <v>1766.579424054735</v>
       </c>
       <c r="G8">
-        <v>1793.040176507133</v>
-      </c>
-      <c r="Q8">
-        <v>0.2313707607215647</v>
-      </c>
-      <c r="R8">
-        <v>0.2419631202101734</v>
+        <v>1793.0401765071331</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>131.60231178369099</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>134.43735373153891</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>131.17344684283898</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>6.8151935696393995E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>7.0718657143095096E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>6.8169898212482108E-2</v>
       </c>
       <c r="S8">
-        <v>0.2337200747848628</v>
+        <f>AVERAGE(S3:S5)</f>
+        <v>8991.4422136250014</v>
+      </c>
+      <c r="W8">
+        <f>AVERAGE(W3:W5)</f>
+        <v>0.54433418044500914</v>
       </c>
       <c r="Y8">
-        <v>5578619.72048246</v>
+        <v>0.23137076072156471</v>
       </c>
       <c r="Z8">
-        <v>5490618.877723809</v>
+        <v>0.24196312021017341</v>
       </c>
       <c r="AA8">
-        <v>5559717.21926186</v>
-      </c>
-      <c r="AC8">
+        <v>0.23372007478486281</v>
+      </c>
+      <c r="AG8">
+        <v>5578619.7204824602</v>
+      </c>
+      <c r="AH8">
+        <v>5490618.8777238093</v>
+      </c>
+      <c r="AI8">
+        <v>5559717.2192618595</v>
+      </c>
+      <c r="AK8">
         <v>1290729.488504349</v>
       </c>
-      <c r="AD8">
+      <c r="AL8">
         <v>1328527.275538933</v>
       </c>
-      <c r="AE8">
-        <v>1299417.524268571</v>
-      </c>
-      <c r="BJ8">
+      <c r="AM8">
+        <v>1299417.5242685711</v>
+      </c>
+      <c r="BR8">
         <v>1535050</v>
       </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
         <v>2841568.479582475</v>
       </c>
-      <c r="BO8">
+      <c r="BW8">
         <v>2753567.63682386</v>
       </c>
-      <c r="BP8">
-        <v>2822665.978361901</v>
+      <c r="BX8">
+        <v>2822665.9783619009</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1448.365893272944</v>
       </c>
@@ -1458,7 +1641,7 @@
         <v>1446.08486669339</v>
       </c>
       <c r="E9">
-        <v>1334.015138477898</v>
+        <v>1334.0151384778981</v>
       </c>
       <c r="F9">
         <v>1315.144167168173</v>
@@ -1466,61 +1649,85 @@
       <c r="G9">
         <v>1328.738026586517</v>
       </c>
-      <c r="Q9">
-        <v>0.2882685494051085</v>
-      </c>
-      <c r="R9">
-        <v>0.3185124708775176</v>
-      </c>
-      <c r="S9">
-        <v>0.3011754633411338</v>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>114.35075479504599</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>123.903261812133</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>117.34684010687306</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>7.8951565572040597E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>8.6100888210425108E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>8.1147962204457413E-2</v>
       </c>
       <c r="Y9">
-        <v>4385446.402721156</v>
+        <v>0.28826854940510849</v>
       </c>
       <c r="Z9">
-        <v>4355897.890195358</v>
+        <v>0.31851247087751761</v>
       </c>
       <c r="AA9">
-        <v>4379099.409026816</v>
-      </c>
-      <c r="AC9">
+        <v>0.30117546334113382</v>
+      </c>
+      <c r="AG9">
+        <v>4385446.4027211564</v>
+      </c>
+      <c r="AH9">
+        <v>4355897.8901953576</v>
+      </c>
+      <c r="AI9">
+        <v>4379099.4090268156</v>
+      </c>
+      <c r="AK9">
         <v>1264186.273006279</v>
       </c>
-      <c r="AD9">
-        <v>1387407.799896289</v>
-      </c>
-      <c r="AE9">
-        <v>1318877.293530536</v>
-      </c>
-      <c r="BJ9">
+      <c r="AL9">
+        <v>1387407.7998962889</v>
+      </c>
+      <c r="AM9">
+        <v>1318877.2935305359</v>
+      </c>
+      <c r="BR9">
         <v>1511950</v>
       </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>954128.6103604785</v>
-      </c>
-      <c r="BO9">
-        <v>924580.0978346763</v>
-      </c>
-      <c r="BP9">
-        <v>947781.616666134</v>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>954128.61036047852</v>
+      </c>
+      <c r="BW9">
+        <v>924580.09783467627</v>
+      </c>
+      <c r="BX9">
+        <v>947781.61666613398</v>
       </c>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1724.046400328115</v>
+        <v>1724.0464003281149</v>
       </c>
       <c r="B10">
         <v>1697.764095357275</v>
       </c>
       <c r="C10">
-        <v>1717.612868543518</v>
+        <v>1717.6128685435181</v>
       </c>
       <c r="E10">
         <v>1613.632904351045</v>
@@ -1529,128 +1736,176 @@
         <v>1584.050434560517</v>
       </c>
       <c r="G10">
-        <v>1606.524758243475</v>
-      </c>
-      <c r="Q10">
-        <v>0.2297294279507452</v>
-      </c>
-      <c r="R10">
-        <v>0.246979545990285</v>
-      </c>
-      <c r="S10">
-        <v>0.2367299233596284</v>
+        <v>1606.5247582434749</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>110.41349597706994</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>113.71366079675795</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>111.08811030004313</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>6.4043227581378551E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>6.6978481349511759E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>6.4675872156362196E-2</v>
       </c>
       <c r="Y10">
-        <v>5249653.661445601</v>
+        <v>0.22972942795074519</v>
       </c>
       <c r="Z10">
-        <v>5166313.424980792</v>
+        <v>0.24697954599028499</v>
       </c>
       <c r="AA10">
-        <v>5231752.254230427</v>
-      </c>
-      <c r="AC10">
-        <v>1205999.932583433</v>
-      </c>
-      <c r="AD10">
+        <v>0.23672992335962839</v>
+      </c>
+      <c r="AG10">
+        <v>5249653.6614456009</v>
+      </c>
+      <c r="AH10">
+        <v>5166313.4249807922</v>
+      </c>
+      <c r="AI10">
+        <v>5231752.2542304266</v>
+      </c>
+      <c r="AK10">
+        <v>1205999.9325834331</v>
+      </c>
+      <c r="AL10">
         <v>1275973.74414527</v>
       </c>
-      <c r="AE10">
+      <c r="AM10">
         <v>1238512.310180532</v>
       </c>
-      <c r="BJ10">
+      <c r="BR10">
         <v>1494900</v>
       </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>2691076.376039225</v>
-      </c>
-      <c r="BO10">
-        <v>2607736.139574407</v>
-      </c>
-      <c r="BP10">
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>2691076.3760392251</v>
+      </c>
+      <c r="BW10">
+        <v>2607736.1395744071</v>
+      </c>
+      <c r="BX10">
         <v>2673174.968824042</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1547.300860707434</v>
+        <v>1547.3008607074339</v>
       </c>
       <c r="B11">
-        <v>1543.336277717476</v>
+        <v>1543.3362777174759</v>
       </c>
       <c r="C11">
-        <v>1546.330387580865</v>
+        <v>1546.3303875808649</v>
       </c>
       <c r="E11">
         <v>1414.111873922559</v>
       </c>
       <c r="F11">
-        <v>1399.840466035689</v>
+        <v>1399.8404660356889</v>
       </c>
       <c r="G11">
         <v>1411.107580403919</v>
       </c>
-      <c r="Q11">
-        <v>0.3170913332068092</v>
-      </c>
-      <c r="R11">
-        <v>0.3451497999859451</v>
-      </c>
-      <c r="S11">
-        <v>0.3248380613027455</v>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>133.18898678487494</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>143.49581168178702</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>135.22280717694593</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>8.6078273571165889E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>9.2977670358407427E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>8.7447552129201425E-2</v>
       </c>
       <c r="Y11">
-        <v>4645311.736655585</v>
+        <v>0.31709133320680921</v>
       </c>
       <c r="Z11">
-        <v>4632740.187690062</v>
+        <v>0.34514979998594508</v>
       </c>
       <c r="AA11">
-        <v>4642611.379338356</v>
-      </c>
-      <c r="AC11">
+        <v>0.32483806130274551</v>
+      </c>
+      <c r="AG11">
+        <v>4645311.7366555845</v>
+      </c>
+      <c r="AH11">
+        <v>4632740.1876900624</v>
+      </c>
+      <c r="AI11">
+        <v>4642611.3793383557</v>
+      </c>
+      <c r="AK11">
         <v>1472988.091737357</v>
       </c>
-      <c r="AD11">
+      <c r="AL11">
         <v>1598989.349168075</v>
       </c>
-      <c r="AE11">
-        <v>1508096.879846336</v>
-      </c>
-      <c r="BJ11">
+      <c r="AM11">
+        <v>1508096.8798463361</v>
+      </c>
+      <c r="BR11">
         <v>2055750</v>
       </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>405938.3542261428</v>
-      </c>
-      <c r="BO11">
-        <v>393366.8052606152</v>
-      </c>
-      <c r="BP11">
-        <v>403237.9969089124</v>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>405938.35422614281</v>
+      </c>
+      <c r="BW11">
+        <v>393366.80526061519</v>
+      </c>
+      <c r="BX11">
+        <v>403237.99690891238</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1676.013682668516</v>
+        <v>1676.0136826685159</v>
       </c>
       <c r="B12">
         <v>1663.192528454568</v>
       </c>
       <c r="C12">
-        <v>1672.791031897135</v>
+        <v>1672.7910318971351</v>
       </c>
       <c r="E12">
         <v>1521.235053564646</v>
@@ -1661,53 +1916,77 @@
       <c r="G12">
         <v>1518.771374368436</v>
       </c>
-      <c r="Q12">
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>154.77862910386989</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>160.64404966774396</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>154.0196575286991</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>9.2349263436462173E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>9.6587765348497431E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>9.2073459620370696E-2</v>
+      </c>
+      <c r="Y12">
         <v>0.2799753992865297</v>
       </c>
-      <c r="R12">
-        <v>0.2995022134243078</v>
-      </c>
-      <c r="S12">
+      <c r="Z12">
+        <v>0.29950221342430777</v>
+      </c>
+      <c r="AA12">
         <v>0.2844703651686285</v>
       </c>
-      <c r="Y12">
-        <v>4764468.66493383</v>
-      </c>
-      <c r="Z12">
-        <v>4725921.287229721</v>
-      </c>
-      <c r="AA12">
-        <v>4756188.723159849</v>
-      </c>
-      <c r="AC12">
+      <c r="AG12">
+        <v>4764468.6649338296</v>
+      </c>
+      <c r="AH12">
+        <v>4725921.2872297214</v>
+      </c>
+      <c r="AI12">
+        <v>4756188.7231598487</v>
+      </c>
+      <c r="AK12">
         <v>1333934.016853008</v>
       </c>
-      <c r="AD12">
+      <c r="AL12">
         <v>1415423.885994355</v>
       </c>
-      <c r="AE12">
+      <c r="AM12">
         <v>1352994.742888195</v>
       </c>
-      <c r="BJ12">
+      <c r="BR12">
         <v>1496550</v>
       </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
         <v>1244704.141697441</v>
       </c>
-      <c r="BO12">
-        <v>1206156.76399334</v>
-      </c>
-      <c r="BP12">
-        <v>1236424.199923461</v>
+      <c r="BW12">
+        <v>1206156.7639933401</v>
+      </c>
+      <c r="BX12">
+        <v>1236424.1999234611</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1703.350026273986</v>
       </c>
@@ -1726,120 +2005,168 @@
       <c r="G13">
         <v>1538.667939305031</v>
       </c>
-      <c r="Q13">
-        <v>0.2897839899432249</v>
-      </c>
-      <c r="R13">
-        <v>0.3058594877736276</v>
-      </c>
-      <c r="S13">
-        <v>0.2936871631281811</v>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>163.395766451599</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>166.77932680140702</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>161.57733805504995</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>9.5926124361544809E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>9.8627752871083316E-2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>9.5031781712063418E-2</v>
       </c>
       <c r="Y13">
-        <v>4871767.604728537</v>
+        <v>0.28978398994322491</v>
       </c>
       <c r="Z13">
-        <v>4834630.49694043</v>
+        <v>0.30585948777362759</v>
       </c>
       <c r="AA13">
-        <v>4863790.587653603</v>
-      </c>
-      <c r="AC13">
-        <v>1411760.254574383</v>
-      </c>
-      <c r="AD13">
-        <v>1478717.607368959</v>
-      </c>
-      <c r="AE13">
+        <v>0.29368716312818111</v>
+      </c>
+      <c r="AG13">
+        <v>4871767.6047285367</v>
+      </c>
+      <c r="AH13">
+        <v>4834630.4969404303</v>
+      </c>
+      <c r="AI13">
+        <v>4863790.5876536034</v>
+      </c>
+      <c r="AK13">
+        <v>1411760.2545743829</v>
+      </c>
+      <c r="AL13">
+        <v>1478717.6073689591</v>
+      </c>
+      <c r="AM13">
         <v>1428432.859737535</v>
       </c>
-      <c r="BJ13">
+      <c r="BR13">
         <v>1536700</v>
       </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
         <v>1199166.185293986</v>
       </c>
-      <c r="BO13">
+      <c r="BW13">
         <v>1162029.077505864</v>
       </c>
-      <c r="BP13">
+      <c r="BX13">
         <v>1191189.168219052</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1707.982966128106</v>
       </c>
       <c r="B14">
-        <v>1680.120409043648</v>
+        <v>1680.1204090436479</v>
       </c>
       <c r="C14">
-        <v>1700.97959579321</v>
+        <v>1700.9795957932099</v>
       </c>
       <c r="E14">
-        <v>1585.587090607111</v>
+        <v>1585.5870906071109</v>
       </c>
       <c r="F14">
         <v>1559.072388522422</v>
       </c>
       <c r="G14">
-        <v>1582.673975060999</v>
-      </c>
-      <c r="Q14">
-        <v>0.2157071687484096</v>
-      </c>
-      <c r="R14">
-        <v>0.2218185031057898</v>
-      </c>
-      <c r="S14">
-        <v>0.2139466331670822</v>
+        <v>1582.6739750609991</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>122.39587552099511</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>121.04802052122591</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>118.30562073221085</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>7.1661063340964781E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>7.2047229394783932E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>6.9551463771111224E-2</v>
       </c>
       <c r="Y14">
-        <v>4913308.689068555</v>
+        <v>0.21570716874840959</v>
       </c>
       <c r="Z14">
-        <v>4829538.656057917</v>
+        <v>0.22181850310578979</v>
       </c>
       <c r="AA14">
-        <v>4895314.961945098</v>
-      </c>
-      <c r="AC14">
-        <v>1059835.906505938</v>
-      </c>
-      <c r="AD14">
+        <v>0.21394663316708221</v>
+      </c>
+      <c r="AG14">
+        <v>4913308.6890685549</v>
+      </c>
+      <c r="AH14">
+        <v>4829538.6560579166</v>
+      </c>
+      <c r="AI14">
+        <v>4895314.9619450979</v>
+      </c>
+      <c r="AK14">
+        <v>1059835.9065059379</v>
+      </c>
+      <c r="AL14">
         <v>1071281.035378315</v>
       </c>
-      <c r="AE14">
+      <c r="AM14">
         <v>1047336.154400597</v>
       </c>
-      <c r="BJ14">
+      <c r="BR14">
         <v>801900</v>
       </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>2704954.610372029</v>
-      </c>
-      <c r="BO14">
-        <v>2621184.577361368</v>
-      </c>
-      <c r="BP14">
-        <v>2686960.88324857</v>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>2704954.6103720288</v>
+      </c>
+      <c r="BW14">
+        <v>2621184.5773613681</v>
+      </c>
+      <c r="BX14">
+        <v>2686960.8832485699</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1134.903556592768</v>
+        <v>1134.9035565927679</v>
       </c>
       <c r="B15">
         <v>1124.401021164256</v>
@@ -1848,66 +2175,90 @@
         <v>1132.522749449221</v>
       </c>
       <c r="E15">
-        <v>1037.036679319092</v>
+        <v>1037.0366793190919</v>
       </c>
       <c r="F15">
         <v>1023.832949373552</v>
       </c>
       <c r="G15">
-        <v>1037.419259691526</v>
-      </c>
-      <c r="Q15">
-        <v>0.2932286540260933</v>
-      </c>
-      <c r="R15">
-        <v>0.3060687554328034</v>
-      </c>
-      <c r="S15">
-        <v>0.2878153920320045</v>
+        <v>1037.4192596915259</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>97.866877273675982</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>100.56807179070404</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>95.103489757695115</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>8.623365104916407E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>8.9441462518925208E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>8.3974904525270441E-2</v>
       </c>
       <c r="Y15">
-        <v>3270448.185677257</v>
+        <v>0.29322865402609333</v>
       </c>
       <c r="Z15">
-        <v>3239637.145798084</v>
+        <v>0.30606875543280337</v>
       </c>
       <c r="AA15">
-        <v>3263830.00225234</v>
-      </c>
-      <c r="AC15">
-        <v>958989.1195482209</v>
-      </c>
-      <c r="AD15">
-        <v>991551.7092682989</v>
-      </c>
-      <c r="AE15">
-        <v>939380.5116240755</v>
-      </c>
-      <c r="BJ15">
+        <v>0.28781539203200451</v>
+      </c>
+      <c r="AG15">
+        <v>3270448.1856772569</v>
+      </c>
+      <c r="AH15">
+        <v>3239637.1457980839</v>
+      </c>
+      <c r="AI15">
+        <v>3263830.0022523399</v>
+      </c>
+      <c r="AK15">
+        <v>958989.11954822089</v>
+      </c>
+      <c r="AL15">
+        <v>991551.70926829893</v>
+      </c>
+      <c r="AM15">
+        <v>939380.51162407547</v>
+      </c>
+      <c r="BR15">
         <v>830400</v>
       </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>994895.9237122068</v>
-      </c>
-      <c r="BO15">
-        <v>964084.8838330344</v>
-      </c>
-      <c r="BP15">
-        <v>988277.74028729</v>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>994895.92371220677</v>
+      </c>
+      <c r="BW15">
+        <v>964084.88383303443</v>
+      </c>
+      <c r="BX15">
+        <v>988277.74028728995</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1768.990855578886</v>
+        <v>1768.9908555788861</v>
       </c>
       <c r="B16">
-        <v>1749.441672370625</v>
+        <v>1749.4416723706249</v>
       </c>
       <c r="C16">
         <v>1764.559274714481</v>
@@ -1916,58 +2267,82 @@
         <v>1627.122322034526</v>
       </c>
       <c r="F16">
-        <v>1606.07272814961</v>
+        <v>1606.0727281496099</v>
       </c>
       <c r="G16">
         <v>1622.571770839279</v>
       </c>
-      <c r="Q16">
-        <v>0.2728236175727254</v>
-      </c>
-      <c r="R16">
-        <v>0.280779057646561</v>
-      </c>
-      <c r="S16">
-        <v>0.2764515371033864</v>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>141.86853354436016</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>143.368944221015</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>141.98750387520204</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>8.0197437480780523E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>8.1951257069770897E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>8.0466270478885826E-2</v>
       </c>
       <c r="Y16">
-        <v>5103372.365102779</v>
+        <v>0.27282361757272539</v>
       </c>
       <c r="Z16">
-        <v>5046021.388518615</v>
+        <v>0.28077905764656103</v>
       </c>
       <c r="AA16">
-        <v>5091053.42734149</v>
-      </c>
-      <c r="AC16">
-        <v>1392320.510468016</v>
-      </c>
-      <c r="AD16">
-        <v>1416817.130332648</v>
-      </c>
-      <c r="AE16">
-        <v>1407429.545464018</v>
-      </c>
-      <c r="BJ16">
+        <v>0.27645153710338638</v>
+      </c>
+      <c r="AG16">
+        <v>5103372.3651027791</v>
+      </c>
+      <c r="AH16">
+        <v>5046021.3885186147</v>
+      </c>
+      <c r="AI16">
+        <v>5091053.4273414901</v>
+      </c>
+      <c r="AK16">
+        <v>1392320.5104680159</v>
+      </c>
+      <c r="AL16">
+        <v>1416817.1303326481</v>
+      </c>
+      <c r="AM16">
+        <v>1407429.5454640179</v>
+      </c>
+      <c r="BR16">
         <v>1509200</v>
       </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>1851876.893745009</v>
-      </c>
-      <c r="BO16">
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>1851876.8937450091</v>
+      </c>
+      <c r="BW16">
         <v>1794525.917160837</v>
       </c>
-      <c r="BP16">
-        <v>1839557.955983715</v>
+      <c r="BX16">
+        <v>1839557.9559837149</v>
       </c>
     </row>
-    <row r="17" spans="1:68">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1877.806582293927</v>
       </c>
@@ -1984,122 +2359,170 @@
         <v>1724.56570035602</v>
       </c>
       <c r="G17">
-        <v>1747.329578592061</v>
-      </c>
-      <c r="Q17">
-        <v>0.2448441464018759</v>
-      </c>
-      <c r="R17">
-        <v>0.2603280352860087</v>
-      </c>
-      <c r="S17">
-        <v>0.2462764512276047</v>
+        <v>1747.3295785920609</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>127.277837585822</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>131.20271388580204</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>125.08237584122207</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>6.7780057214593153E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>7.069993910819157E-2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>6.6802807760902361E-2</v>
       </c>
       <c r="Y17">
-        <v>5717823.175030892</v>
+        <v>0.24484414640187591</v>
       </c>
       <c r="Z17">
+        <v>0.26032803528600867</v>
+      </c>
+      <c r="AA17">
+        <v>0.24627645122760469</v>
+      </c>
+      <c r="AG17">
+        <v>5717823.1750308918</v>
+      </c>
+      <c r="AH17">
         <v>5647940.942907379</v>
       </c>
-      <c r="AA17">
-        <v>5702812.534943774</v>
-      </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>5702812.5349437743</v>
+      </c>
+      <c r="AK17">
         <v>1399975.534567303</v>
       </c>
-      <c r="AD17">
-        <v>1470317.369078485</v>
-      </c>
-      <c r="AE17">
+      <c r="AL17">
+        <v>1470317.3690784851</v>
+      </c>
+      <c r="AM17">
         <v>1404468.433122253</v>
       </c>
-      <c r="BJ17">
+      <c r="BR17">
         <v>1518000</v>
       </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>2256514.163502297</v>
-      </c>
-      <c r="BO17">
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>2256514.1635022969</v>
+      </c>
+      <c r="BW17">
         <v>2186631.9313788</v>
       </c>
-      <c r="BP17">
-        <v>2241503.523415191</v>
+      <c r="BX17">
+        <v>2241503.5234151911</v>
       </c>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2050.951711954019</v>
+        <v>2050.9517119540192</v>
       </c>
       <c r="B18">
         <v>2024.902368590514</v>
       </c>
       <c r="C18">
-        <v>2044.575205833913</v>
+        <v>2044.5752058339131</v>
       </c>
       <c r="E18">
-        <v>1914.581914963664</v>
+        <v>1914.5819149636641</v>
       </c>
       <c r="F18">
-        <v>1885.051896482833</v>
+        <v>1885.0518964828329</v>
       </c>
       <c r="G18">
         <v>1910.728793157813</v>
       </c>
-      <c r="Q18">
-        <v>0.2384959108852036</v>
-      </c>
-      <c r="R18">
-        <v>0.2515565743391499</v>
-      </c>
-      <c r="S18">
-        <v>0.2395364335534539</v>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>136.3697969903551</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>139.85047210768107</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>133.84641267610004</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>6.6490983768911091E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>6.906529138243224E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>6.5464166979129837E-2</v>
       </c>
       <c r="Y18">
-        <v>6251877.34403866</v>
+        <v>0.23849591088520361</v>
       </c>
       <c r="Z18">
-        <v>6169275.820386995</v>
+        <v>0.25155657433914991</v>
       </c>
       <c r="AA18">
-        <v>6234134.611665842</v>
-      </c>
-      <c r="AC18">
+        <v>0.23953643355345389</v>
+      </c>
+      <c r="AG18">
+        <v>6251877.3440386597</v>
+      </c>
+      <c r="AH18">
+        <v>6169275.8203869946</v>
+      </c>
+      <c r="AI18">
+        <v>6234134.6116658421</v>
+      </c>
+      <c r="AK18">
         <v>1491047.181909068</v>
       </c>
-      <c r="AD18">
+      <c r="AL18">
         <v>1551921.891529901</v>
       </c>
-      <c r="AE18">
+      <c r="AM18">
         <v>1493302.371170582</v>
       </c>
-      <c r="BJ18">
+      <c r="BR18">
         <v>1495450</v>
       </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>2667223.16078046</v>
-      </c>
-      <c r="BO18">
-        <v>2584621.63712878</v>
-      </c>
-      <c r="BP18">
-        <v>2649480.428407644</v>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>2667223.1607804601</v>
+      </c>
+      <c r="BW18">
+        <v>2584621.6371287801</v>
+      </c>
+      <c r="BX18">
+        <v>2649480.4284076439</v>
       </c>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1422.629931571916</v>
+        <v>1422.6299315719159</v>
       </c>
       <c r="B19">
         <v>1418.711940903421</v>
@@ -2111,188 +2534,260 @@
         <v>1293.896729557134</v>
       </c>
       <c r="F19">
-        <v>1281.828147228841</v>
+        <v>1281.8281472288411</v>
       </c>
       <c r="G19">
         <v>1292.051692401034</v>
       </c>
-      <c r="Q19">
-        <v>0.3331581121249935</v>
-      </c>
-      <c r="R19">
-        <v>0.3616493506635766</v>
-      </c>
-      <c r="S19">
-        <v>0.3425631767713201</v>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>128.73320201478191</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>136.88379367457992</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>129.619171177206</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>9.0489591957720078E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>9.6484557384787881E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>9.1173825459828425E-2</v>
       </c>
       <c r="Y19">
-        <v>4263960.088295089</v>
+        <v>0.33315811212499352</v>
       </c>
       <c r="Z19">
-        <v>4251536.281892196</v>
+        <v>0.36164935066357662</v>
       </c>
       <c r="AA19">
-        <v>4261291.465946332</v>
-      </c>
-      <c r="AC19">
-        <v>1420572.893192713</v>
-      </c>
-      <c r="AD19">
-        <v>1537565.33566895</v>
-      </c>
-      <c r="AE19">
-        <v>1459761.541723091</v>
-      </c>
-      <c r="BJ19">
+        <v>0.34256317677132009</v>
+      </c>
+      <c r="AG19">
+        <v>4263960.0882950891</v>
+      </c>
+      <c r="AH19">
+        <v>4251536.2818921963</v>
+      </c>
+      <c r="AI19">
+        <v>4261291.4659463316</v>
+      </c>
+      <c r="AK19">
+        <v>1420572.8931927129</v>
+      </c>
+      <c r="AL19">
+        <v>1537565.3356689501</v>
+      </c>
+      <c r="AM19">
+        <v>1459761.5417230909</v>
+      </c>
+      <c r="BR19">
         <v>2026500</v>
       </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
-        <v>401167.7111742944</v>
-      </c>
-      <c r="BO19">
-        <v>388743.904771401</v>
-      </c>
-      <c r="BP19">
-        <v>398499.0888255383</v>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>401167.71117429441</v>
+      </c>
+      <c r="BW19">
+        <v>388743.90477140102</v>
+      </c>
+      <c r="BX19">
+        <v>398499.08882553829</v>
       </c>
     </row>
-    <row r="20" spans="1:68">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2130.09988424977</v>
+        <v>2130.0998842497702</v>
       </c>
       <c r="B20">
-        <v>2102.116710035063</v>
+        <v>2102.1167100350631</v>
       </c>
       <c r="C20">
-        <v>2123.066196294368</v>
+        <v>2123.0661962943682</v>
       </c>
       <c r="E20">
         <v>1961.281708912411</v>
       </c>
       <c r="F20">
-        <v>1926.102293922016</v>
+        <v>1926.1022939220161</v>
       </c>
       <c r="G20">
         <v>1959.581136325517</v>
       </c>
-      <c r="Q20">
-        <v>0.238537929739172</v>
-      </c>
-      <c r="R20">
-        <v>0.2569487505429857</v>
-      </c>
-      <c r="S20">
-        <v>0.2369772097232843</v>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>168.81817533735921</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>176.01441611304699</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>163.48505996885115</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>7.9253642791881407E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>8.3731990366087278E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>7.7004221655547267E-2</v>
       </c>
       <c r="Y20">
-        <v>6093719.049157999</v>
+        <v>0.23853792973917201</v>
       </c>
       <c r="Z20">
-        <v>6009586.375311815</v>
+        <v>0.25694875054298572</v>
       </c>
       <c r="AA20">
-        <v>6075647.427111929</v>
-      </c>
-      <c r="AC20">
+        <v>0.23697720972328429</v>
+      </c>
+      <c r="AG20">
+        <v>6093719.0491579995</v>
+      </c>
+      <c r="AH20">
+        <v>6009586.3753118152</v>
+      </c>
+      <c r="AI20">
+        <v>6075647.4271119293</v>
+      </c>
+      <c r="AK20">
         <v>1453583.126398304</v>
       </c>
-      <c r="AD20">
-        <v>1544155.710416521</v>
-      </c>
-      <c r="AE20">
-        <v>1439789.974539436</v>
-      </c>
-      <c r="BJ20">
+      <c r="AL20">
+        <v>1544155.7104165209</v>
+      </c>
+      <c r="AM20">
+        <v>1439789.9745394359</v>
+      </c>
+      <c r="BR20">
         <v>1537250</v>
       </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>2716664.37058986</v>
-      </c>
-      <c r="BO20">
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>2716664.3705898598</v>
+      </c>
+      <c r="BW20">
         <v>2632531.696743689</v>
       </c>
-      <c r="BP20">
-        <v>2698592.748543792</v>
+      <c r="BX20">
+        <v>2698592.7485437919</v>
       </c>
     </row>
-    <row r="21" spans="1:68">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1577.051905021217</v>
       </c>
       <c r="B21">
-        <v>1560.853471160675</v>
+        <v>1560.8534711606751</v>
       </c>
       <c r="C21">
-        <v>1572.980360875899</v>
+        <v>1572.9803608758989</v>
       </c>
       <c r="E21">
-        <v>1444.407726419881</v>
+        <v>1444.4077264198811</v>
       </c>
       <c r="F21">
-        <v>1425.466173152597</v>
+        <v>1425.4661731525971</v>
       </c>
       <c r="G21">
         <v>1441.636884462534</v>
       </c>
-      <c r="Q21">
-        <v>0.2546280224737111</v>
-      </c>
-      <c r="R21">
-        <v>0.2660659656097508</v>
-      </c>
-      <c r="S21">
-        <v>0.2549776315002864</v>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>132.64417860133585</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>135.38729800807801</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>131.3434764133649</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>8.4108949222918131E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>8.6739274704243627E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>8.3499756055585808E-2</v>
       </c>
       <c r="Y21">
-        <v>4498679.612143982</v>
+        <v>0.25462802247371108</v>
       </c>
       <c r="Z21">
-        <v>4449978.291044643</v>
+        <v>0.26606596560975082</v>
       </c>
       <c r="AA21">
+        <v>0.25497763150028641</v>
+      </c>
+      <c r="AG21">
+        <v>4498679.6121439822</v>
+      </c>
+      <c r="AH21">
+        <v>4449978.2910446431</v>
+      </c>
+      <c r="AI21">
         <v>4488218.612536856</v>
       </c>
-      <c r="AC21">
+      <c r="AK21">
         <v>1145489.893383024</v>
       </c>
-      <c r="AD21">
-        <v>1183987.770949222</v>
-      </c>
-      <c r="AE21">
+      <c r="AL21">
+        <v>1183987.7709492219</v>
+      </c>
+      <c r="AM21">
         <v>1144395.351480149</v>
       </c>
-      <c r="BJ21">
+      <c r="BR21">
         <v>839400</v>
       </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
         <v>1572577.427803437</v>
       </c>
-      <c r="BO21">
-        <v>1523876.106704081</v>
-      </c>
-      <c r="BP21">
-        <v>1562116.428196306</v>
+      <c r="BW21">
+        <v>1523876.1067040809</v>
+      </c>
+      <c r="BX21">
+        <v>1562116.4281963061</v>
       </c>
     </row>
-    <row r="22" spans="1:68">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1349.861339592029</v>
       </c>
@@ -2303,202 +2798,274 @@
         <v>1347.382031960236</v>
       </c>
       <c r="E22">
-        <v>1212.579345067686</v>
+        <v>1212.5793450676861</v>
       </c>
       <c r="F22">
-        <v>1198.819061989815</v>
+        <v>1198.8190619898151</v>
       </c>
       <c r="G22">
         <v>1215.395350421104</v>
       </c>
-      <c r="Q22">
-        <v>0.3090704474474048</v>
-      </c>
-      <c r="R22">
-        <v>0.3256712109096555</v>
-      </c>
-      <c r="S22">
-        <v>0.3046607895282639</v>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>137.28199452434296</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>141.17847672959192</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>131.98668153913195</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.10170081214847886</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0.1053572657040189</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>9.7957875649500384E-2</v>
       </c>
       <c r="Y22">
-        <v>3814120.677478913</v>
+        <v>0.30907044744740481</v>
       </c>
       <c r="Z22">
+        <v>0.32567121090965551</v>
+      </c>
+      <c r="AA22">
+        <v>0.30466078952826392</v>
+      </c>
+      <c r="AG22">
+        <v>3814120.6774789132</v>
+      </c>
+      <c r="AH22">
         <v>3784464.715816658</v>
       </c>
-      <c r="AA22">
+      <c r="AI22">
         <v>3807750.603807502</v>
       </c>
-      <c r="AC22">
-        <v>1178831.984406806</v>
-      </c>
-      <c r="AD22">
-        <v>1232491.206644876</v>
-      </c>
-      <c r="AE22">
-        <v>1160072.305282717</v>
-      </c>
-      <c r="BJ22">
+      <c r="AK22">
+        <v>1178831.9844068061</v>
+      </c>
+      <c r="AL22">
+        <v>1232491.2066448759</v>
+      </c>
+      <c r="AM22">
+        <v>1160072.3052827171</v>
+      </c>
+      <c r="BR22">
         <v>1509750</v>
       </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
-        <v>957598.1689435025</v>
-      </c>
-      <c r="BO22">
-        <v>927942.2072812489</v>
-      </c>
-      <c r="BP22">
-        <v>951228.0952720898</v>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>957598.16894350247</v>
+      </c>
+      <c r="BW22">
+        <v>927942.20728124888</v>
+      </c>
+      <c r="BX22">
+        <v>951228.09527208982</v>
       </c>
     </row>
-    <row r="23" spans="1:68">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1156.412876350723</v>
+        <v>1156.4128763507231</v>
       </c>
       <c r="B23">
-        <v>1147.054906683811</v>
+        <v>1147.0549066838109</v>
       </c>
       <c r="C23">
-        <v>1154.291529445139</v>
+        <v>1154.2915294451391</v>
       </c>
       <c r="E23">
-        <v>1056.02084173006</v>
+        <v>1056.0208417300601</v>
       </c>
       <c r="F23">
-        <v>1044.032872382318</v>
+        <v>1044.0328723823179</v>
       </c>
       <c r="G23">
         <v>1053.888568046304</v>
       </c>
-      <c r="Q23">
-        <v>0.2959253316291648</v>
-      </c>
-      <c r="R23">
-        <v>0.3078411322383559</v>
-      </c>
-      <c r="S23">
-        <v>0.2979255177042001</v>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>100.39203462066303</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>103.02203430149302</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>100.40296139883503</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>8.6813314408491243E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>8.9814387873841633E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>8.6982325381091657E-2</v>
       </c>
       <c r="Y23">
-        <v>3341651.221816626</v>
+        <v>0.29592533162916479</v>
       </c>
       <c r="Z23">
+        <v>0.30784113223835591</v>
+      </c>
+      <c r="AA23">
+        <v>0.29792551770420012</v>
+      </c>
+      <c r="AG23">
+        <v>3341651.2218166259</v>
+      </c>
+      <c r="AH23">
         <v>3314197.967451748</v>
       </c>
-      <c r="AA23">
-        <v>3335754.287675157</v>
-      </c>
-      <c r="AC23">
-        <v>988879.2460050888</v>
-      </c>
-      <c r="AD23">
+      <c r="AI23">
+        <v>3335754.2876751572</v>
+      </c>
+      <c r="AK23">
+        <v>988879.24600508879</v>
+      </c>
+      <c r="AL23">
         <v>1020246.454762404</v>
       </c>
-      <c r="AE23">
-        <v>993806.3230896263</v>
-      </c>
-      <c r="BJ23">
+      <c r="AM23">
+        <v>993806.32308962627</v>
+      </c>
+      <c r="BR23">
         <v>820200</v>
       </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>886472.2179894688</v>
-      </c>
-      <c r="BO23">
-        <v>859018.9636245797</v>
-      </c>
-      <c r="BP23">
-        <v>880575.2838479927</v>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>886472.21798946883</v>
+      </c>
+      <c r="BW23">
+        <v>859018.96362457972</v>
+      </c>
+      <c r="BX23">
+        <v>880575.28384799266</v>
       </c>
     </row>
-    <row r="24" spans="1:68">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2260.164503641567</v>
+        <v>2260.1645036415671</v>
       </c>
       <c r="B24">
-        <v>2217.989544457813</v>
+        <v>2217.9895444578128</v>
       </c>
       <c r="C24">
-        <v>2250.603912793115</v>
+        <v>2250.6039127931149</v>
       </c>
       <c r="E24">
-        <v>2125.331375675573</v>
+        <v>2125.3313756755729</v>
       </c>
       <c r="F24">
-        <v>2079.901042297182</v>
+        <v>2079.9010422971819</v>
       </c>
       <c r="G24">
         <v>2117.435225923276</v>
       </c>
-      <c r="Q24">
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>134.83312796599421</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>138.08850216063092</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>133.16868686983889</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>5.9656333753030658E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>6.2258409876493191E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>5.9170201434765E-2</v>
+      </c>
+      <c r="Y24">
         <v>0.2021550476423925</v>
       </c>
-      <c r="R24">
-        <v>0.2132926691627091</v>
-      </c>
-      <c r="S24">
-        <v>0.2023477750848582</v>
-      </c>
-      <c r="Y24">
-        <v>6533632.555201574</v>
-      </c>
       <c r="Z24">
-        <v>6409904.87457082</v>
+        <v>0.21329266916270909</v>
       </c>
       <c r="AA24">
-        <v>6507055.961605089</v>
-      </c>
-      <c r="AC24">
-        <v>1320806.800474661</v>
-      </c>
-      <c r="AD24">
+        <v>0.20234777508485821</v>
+      </c>
+      <c r="AG24">
+        <v>6533632.5552015742</v>
+      </c>
+      <c r="AH24">
+        <v>6409904.8745708195</v>
+      </c>
+      <c r="AI24">
+        <v>6507055.9616050888</v>
+      </c>
+      <c r="AK24">
+        <v>1320806.8004746609</v>
+      </c>
+      <c r="AL24">
         <v>1367185.71977627</v>
       </c>
-      <c r="AE24">
+      <c r="AM24">
         <v>1316688.296183452</v>
       </c>
-      <c r="BJ24">
+      <c r="BR24">
         <v>1486650</v>
       </c>
-      <c r="BK24">
-        <v>0</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
-        <v>3995196.708473354</v>
-      </c>
-      <c r="BO24">
-        <v>3871469.027842561</v>
-      </c>
-      <c r="BP24">
-        <v>3968620.114876862</v>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>3995196.7084733541</v>
+      </c>
+      <c r="BW24">
+        <v>3871469.0278425608</v>
+      </c>
+      <c r="BX24">
+        <v>3968620.1148768621</v>
       </c>
     </row>
-    <row r="25" spans="1:68">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1679.209925295762</v>
+        <v>1679.2099252957621</v>
       </c>
       <c r="B25">
         <v>1666.545285188937</v>
       </c>
       <c r="C25">
-        <v>1676.109802808102</v>
+        <v>1676.1098028081019</v>
       </c>
       <c r="E25">
-        <v>1543.515690534209</v>
+        <v>1543.5156905342089</v>
       </c>
       <c r="F25">
         <v>1526.261152721436</v>
@@ -2506,61 +3073,85 @@
       <c r="G25">
         <v>1542.634536976529</v>
       </c>
-      <c r="Q25">
-        <v>0.2909693126670589</v>
-      </c>
-      <c r="R25">
-        <v>0.3102839550440065</v>
-      </c>
-      <c r="S25">
-        <v>0.2931583284427967</v>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>135.69423476155316</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>140.28413246750097</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>133.47526583157287</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>8.0808380606524288E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>8.4176609969285582E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>7.9633962887128623E-2</v>
       </c>
       <c r="Y25">
+        <v>0.29096931266705889</v>
+      </c>
+      <c r="Z25">
+        <v>0.31028395504400652</v>
+      </c>
+      <c r="AA25">
+        <v>0.29315832844279671</v>
+      </c>
+      <c r="AG25">
         <v>5079411.575174354</v>
       </c>
-      <c r="Z25">
-        <v>5039252.460423384</v>
-      </c>
-      <c r="AA25">
-        <v>5070785.433744318</v>
-      </c>
-      <c r="AC25">
-        <v>1477952.894781585</v>
-      </c>
-      <c r="AD25">
-        <v>1563599.183885408</v>
-      </c>
-      <c r="AE25">
+      <c r="AH25">
+        <v>5039252.4604233839</v>
+      </c>
+      <c r="AI25">
+        <v>5070785.4337443179</v>
+      </c>
+      <c r="AK25">
+        <v>1477952.8947815851</v>
+      </c>
+      <c r="AL25">
+        <v>1563599.1838854081</v>
+      </c>
+      <c r="AM25">
         <v>1486542.981648566</v>
       </c>
-      <c r="BJ25">
+      <c r="BR25">
         <v>2056500</v>
       </c>
-      <c r="BK25">
-        <v>0</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
         <v>1296747.520444398</v>
       </c>
-      <c r="BO25">
-        <v>1256588.405693428</v>
-      </c>
-      <c r="BP25">
+      <c r="BW25">
+        <v>1256588.4056934279</v>
+      </c>
+      <c r="BX25">
         <v>1288121.37901436</v>
       </c>
     </row>
-    <row r="26" spans="1:68">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1513.457226627245</v>
+        <v>1513.4572266272451</v>
       </c>
       <c r="B26">
-        <v>1501.106025773914</v>
+        <v>1501.1060257739141</v>
       </c>
       <c r="C26">
-        <v>1510.433829579078</v>
+        <v>1510.4338295790781</v>
       </c>
       <c r="E26">
         <v>1387.039714325027</v>
@@ -2569,52 +3160,120 @@
         <v>1372.67482993052</v>
       </c>
       <c r="G26">
-        <v>1387.544612223818</v>
-      </c>
-      <c r="Q26">
-        <v>0.3012603486209364</v>
-      </c>
-      <c r="R26">
-        <v>0.3125264419021179</v>
-      </c>
-      <c r="S26">
-        <v>0.2991122201668521</v>
+        <v>1387.5446122238179</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>126.41751230221803</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>128.43119584339411</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>122.88921735526014</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>8.3528962747061411E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>8.5557711206428466E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>8.1360212508949453E-2</v>
       </c>
       <c r="Y26">
-        <v>4586636.745756323</v>
+        <v>0.30126034862093642</v>
       </c>
       <c r="Z26">
-        <v>4547471.535517583</v>
+        <v>0.31252644190211792</v>
       </c>
       <c r="AA26">
-        <v>4578224.094114188</v>
-      </c>
-      <c r="AC26">
+        <v>0.29911222016685213</v>
+      </c>
+      <c r="AG26">
+        <v>4586636.7457563234</v>
+      </c>
+      <c r="AH26">
+        <v>4547471.5355175827</v>
+      </c>
+      <c r="AI26">
+        <v>4578224.0941141881</v>
+      </c>
+      <c r="AK26">
         <v>1381771.785024147</v>
       </c>
-      <c r="AD26">
+      <c r="AL26">
         <v>1421205.098646471</v>
       </c>
-      <c r="AE26">
-        <v>1369402.77321187</v>
-      </c>
-      <c r="BJ26">
+      <c r="AM26">
+        <v>1369402.7732118701</v>
+      </c>
+      <c r="BR26">
         <v>1516350</v>
       </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
         <v>1264654.103550466</v>
       </c>
-      <c r="BO26">
-        <v>1225488.893311726</v>
-      </c>
-      <c r="BP26">
+      <c r="BW26">
+        <v>1225488.8933117259</v>
+      </c>
+      <c r="BX26">
         <v>1256241.45190833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f>AVERAGE(I3:I26)</f>
+        <v>133.0804572737151</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:O30" si="8">AVERAGE(J3:J26)</f>
+        <v>137.11543106245276</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>131.37378221154052</v>
+      </c>
+      <c r="L30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>8.0896899033656031E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>8.4177837099919273E-2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>8.0057893346882833E-2</v>
+      </c>
+      <c r="Y30">
+        <f>AVERAGE(Y3:AA26)</f>
+        <v>0.27500155696361683</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f>AVERAGE(I30:K30)</f>
+        <v>133.85655684923611</v>
+      </c>
+      <c r="M33">
+        <f>AVERAGE(M30:O30)</f>
+        <v>8.1710876493486059E-2</v>
       </c>
     </row>
   </sheetData>
